--- a/KCP.xlsx
+++ b/KCP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="官方-c" sheetId="7" r:id="rId1"/>
@@ -1637,8 +1637,8 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>244929</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
@@ -1653,8 +1653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9769929" y="789214"/>
-          <a:ext cx="8871857" cy="6354536"/>
+          <a:off x="8779329" y="435429"/>
+          <a:ext cx="7952014" cy="7034893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6572,11 +6572,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI230" sqref="AI230"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6588,11 +6588,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U84" sqref="U84"/>
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6604,11 +6604,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6620,11 +6620,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
